--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.295069333333332</v>
+        <v>3.037522333333333</v>
       </c>
       <c r="H2">
-        <v>27.885208</v>
+        <v>9.112567</v>
       </c>
       <c r="I2">
-        <v>0.2851098797714358</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="J2">
-        <v>0.2851098797714357</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N2">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q2">
-        <v>780.3995704922097</v>
+        <v>0.08937605713599998</v>
       </c>
       <c r="R2">
-        <v>7023.596134429887</v>
+        <v>0.8043845142239999</v>
       </c>
       <c r="S2">
-        <v>0.2845326602184298</v>
+        <v>0.01698464750012352</v>
       </c>
       <c r="T2">
-        <v>0.2845326602184297</v>
+        <v>0.01698464750012352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.295069333333332</v>
+        <v>3.037522333333333</v>
       </c>
       <c r="H3">
-        <v>27.885208</v>
+        <v>9.112567</v>
       </c>
       <c r="I3">
-        <v>0.2851098797714358</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="J3">
-        <v>0.2851098797714357</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.510969</v>
       </c>
       <c r="O3">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P3">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q3">
-        <v>1.583164094061333</v>
+        <v>0.5173599163803334</v>
       </c>
       <c r="R3">
-        <v>14.248476846552</v>
+        <v>4.656239247423001</v>
       </c>
       <c r="S3">
-        <v>0.0005772195530059794</v>
+        <v>0.09831688812410068</v>
       </c>
       <c r="T3">
-        <v>0.0005772195530059794</v>
+        <v>0.09831688812410068</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>25.764247</v>
       </c>
       <c r="I4">
-        <v>0.2634242988100205</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="J4">
-        <v>0.2634242988100204</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N4">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q4">
-        <v>721.0420411013323</v>
+        <v>0.2526957345759999</v>
       </c>
       <c r="R4">
-        <v>6489.37836991199</v>
+        <v>2.274261611183999</v>
       </c>
       <c r="S4">
-        <v>0.2628909828262604</v>
+        <v>0.04802122754226276</v>
       </c>
       <c r="T4">
-        <v>0.2628909828262603</v>
+        <v>0.04802122754226276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.764247</v>
       </c>
       <c r="I5">
-        <v>0.2634242988100205</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="J5">
-        <v>0.2634242988100204</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,10 +744,10 @@
         <v>0.510969</v>
       </c>
       <c r="O5">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P5">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q5">
         <v>1.462747947260333</v>
@@ -756,10 +756,10 @@
         <v>13.164731525343</v>
       </c>
       <c r="S5">
-        <v>0.0005333159837601227</v>
+        <v>0.2779744269535352</v>
       </c>
       <c r="T5">
-        <v>0.0005333159837601227</v>
+        <v>0.2779744269535352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>44.155672</v>
       </c>
       <c r="I6">
-        <v>0.4514658214185439</v>
+        <v>0.5587028098799778</v>
       </c>
       <c r="J6">
-        <v>0.4514658214185438</v>
+        <v>0.5587028098799777</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N6">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O6">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P6">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q6">
-        <v>1235.747191256199</v>
+        <v>0.433078830976</v>
       </c>
       <c r="R6">
-        <v>11121.72472130579</v>
+        <v>3.897709478784</v>
       </c>
       <c r="S6">
-        <v>0.4505518057420419</v>
+        <v>0.08230046748090566</v>
       </c>
       <c r="T6">
-        <v>0.4505518057420418</v>
+        <v>0.08230046748090565</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>44.155672</v>
       </c>
       <c r="I7">
-        <v>0.4514658214185439</v>
+        <v>0.5587028098799778</v>
       </c>
       <c r="J7">
-        <v>0.4514658214185438</v>
+        <v>0.5587028098799777</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.510969</v>
       </c>
       <c r="O7">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P7">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q7">
         <v>2.506908840685333</v>
@@ -880,10 +880,10 @@
         <v>22.562179566168</v>
       </c>
       <c r="S7">
-        <v>0.0009140156765019875</v>
+        <v>0.4764023423990721</v>
       </c>
       <c r="T7">
-        <v>0.0009140156765019876</v>
+        <v>0.476402342399072</v>
       </c>
     </row>
   </sheetData>
